--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/DISTRICT_OF_COLUMBIA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/DISTRICT_OF_COLUMBIA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C8">
@@ -506,7 +506,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C10">
@@ -584,7 +584,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C16">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1043,7 +1043,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C49">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C53">
@@ -1126,7 +1126,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C55">
@@ -1152,7 +1152,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C57">
@@ -1165,7 +1165,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C58">
@@ -1178,7 +1178,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C59">
@@ -1204,7 +1204,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C61">
@@ -1295,7 +1295,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C68">
@@ -1352,7 +1352,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C72">
@@ -1378,7 +1378,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C74">
@@ -1435,7 +1435,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C78">
@@ -1518,7 +1518,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C84">
@@ -1562,7 +1562,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C87">
@@ -1663,7 +1663,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C94">
@@ -1676,7 +1676,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C95">
@@ -1689,7 +1689,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C96">
@@ -1702,7 +1702,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C97">
@@ -1715,7 +1715,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C98">
@@ -1728,7 +1728,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C99">
@@ -1858,7 +1858,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C109">
@@ -2045,7 +2045,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C123">
@@ -2058,7 +2058,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C124">
@@ -2162,7 +2162,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C132">
@@ -2175,7 +2175,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C133">
@@ -2188,7 +2188,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C134">
@@ -2227,7 +2227,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C137">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C140">
@@ -2556,7 +2556,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C160">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C162">
@@ -2678,7 +2678,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C169">
@@ -2717,7 +2717,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C172">
@@ -2816,76 +2816,6 @@
       </c>
       <c r="D179">
         <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/DISTRICT_OF_COLUMBIA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/DISTRICT_OF_COLUMBIA_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Socoltenango</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Timilpan</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>León</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1350,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1446,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Sayula</t>
@@ -1459,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Tingüindín</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1560,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -1573,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1586,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1617,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Chahuites</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -1674,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -1687,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -1700,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1713,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -1726,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1739,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -1752,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>San Jerónimo Taviche</t>
@@ -1765,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>San Juan Bautista Cuicatlán</t>
@@ -1778,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>San Juan Guelavía</t>
@@ -1791,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -1804,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -1817,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>San Miguel Tequixtepec</t>
@@ -1830,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1843,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1856,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Santa Inés Del Monte</t>
@@ -1869,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -1882,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Santo Domingo Teojomulco</t>
@@ -1895,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Villa Díaz Ordaz</t>
@@ -1908,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1939,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -1952,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Aljojuca</t>
@@ -1965,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Amozoc</t>
@@ -1978,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1991,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Atzala</t>
@@ -2004,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Atzitzihuacán</t>
@@ -2017,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -2030,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -2043,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -2056,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -2069,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2082,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -2095,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Santa Inés Ahuatempan</t>
@@ -2108,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Santa Isabel Cholula</t>
@@ -2121,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -2134,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -2147,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -2160,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -2173,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -2186,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -2199,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -2212,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -2225,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Xayacatlán De Bravo</t>
@@ -2238,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Zacapala</t>
@@ -2251,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2282,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -2295,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2326,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -2339,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2370,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -2383,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2414,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -2427,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2458,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -2471,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -2484,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2497,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2528,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -2541,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Natívitas</t>
@@ -2554,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>San Pablo Del Monte</t>
@@ -2567,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2598,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -2611,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -2624,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2637,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Cuichapa</t>
@@ -2650,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2663,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -2676,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2689,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -2702,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2715,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -2728,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2741,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2754,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2767,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -2780,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -2793,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Total</t>
